--- a/dg_user.xlsx
+++ b/dg_user.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -30,6 +30,18 @@
       <family val="3"/>
       <sz val="8"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,8 +64,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="표준" xfId="0"/>
@@ -63,7 +82,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -108,7 +127,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -143,7 +162,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -329,13 +348,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A2"/>
+      <selection activeCell="A1" sqref="A1:D257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="5.5"/>
+    <col customWidth="1" max="2" min="2" style="1" width="21.25"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -351,6 +374,37 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>278771008234717185</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="E12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="E13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="E14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="E15" s="2" t="n"/>
+    </row>
+    <row r="16">
+      <c r="E16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="E17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="E18" s="2" t="n"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="4294967293"/>
